--- a/files/galen_results_gpt4_rag.xlsx
+++ b/files/galen_results_gpt4_rag.xlsx
@@ -112,123 +112,198 @@
     <t>Which SMARCA4 mutations rescue depletion or knockdown of SMARCA2?</t>
   </si>
   <si>
-    <t>['']</t>
-  </si>
-  <si>
-    <t>- Synthetic lethality refers to a genetic interaction where the combination of mutations in two or more genes leads to cell death, while a mutation in any single gene does not. In the context of drug discovery, targeting synthetic lethal interactions can be a promising strategy for developing cancer therapies.</t>
-  </si>
-  <si>
-    <t>- Deletion of the MAT2A gene results in synthetic lethal inhibition of PRMT5.</t>
-  </si>
-  <si>
-    <t>- The paper describes the demographic and clinical characteristics of the patient population.
-- The information is likely to include details such as age, gender, ethnicity, and medical history of the patients involved in the study.
-- This information is pertinent for understanding the patient population and the relevance of the study findings.</t>
-  </si>
-  <si>
-    <t>- The human genome encodes approximately 518 kinases and 167 pseudokinases.</t>
-  </si>
-  <si>
-    <t>- The KRAS oncogene is commonly mutated in various types of cancer, including pancreatic, colorectal, and lung cancer.</t>
-  </si>
-  <si>
-    <t>- Pseudokinases are a group of proteins that resemble kinases but lack key catalytic residues
-- Examples of known pseudokinases include: Pseudokinase BUB1B, Pseudokinase STRAD, Pseudokinase MLKL, Pseudokinase TELO2, Pseudokinase MLKL, and many others.</t>
-  </si>
-  <si>
-    <t>- Well-known tumor suppressor proteins include p53, pRB, BRCA1, and BRCA2.
-- They play crucial roles in regulating cell growth, DNA repair, and apoptosis.
-- Mutations in these proteins can lead to uncontrolled cell growth and contribute to cancer development and progression.</t>
-  </si>
-  <si>
-    <t>- Genes that exhibit a synthetic lethal relationship with PARP gene expression are of interest for drug discovery.
-  - Synthetic lethality occurs when the combination of mutations in two genes leads to cell death, but a mutation in either gene alone does not.
-  - Identifying genes with a synthetic lethal relationship to PARP gene expression can help in the development of targeted cancer therapies, particularly for tumors with deficiencies in DNA repair pathways.
-  - Computational and experimental approaches, such as CRISPR/Cas9 screens and bioinformatics analyses, are used to identify genes with synthetic lethal relationships to PARP gene expression.
-  - Understanding these relationships can lead to the development of new drugs that selectively kill cancer cells while sparing normal cells.</t>
-  </si>
-  <si>
-    <t>- The gene that can be harnessed in combination with the BRAF gene to exploit synthetic lethality mechanisms in cancer therapy is the MEK gene.</t>
-  </si>
-  <si>
-    <t>- Synthetic lethality was first discovered in yeast, a model organism commonly used in biological research.</t>
-  </si>
-  <si>
-    <t>- The goal of Project Achilles is to identify genetic dependencies in cancer cells, which can lead to potential drug targets.
-- Methods used include CRISPR-Cas9 gene editing to systematically knockout genes in cancer cell lines.
-- The effects of gene knockouts are then observed to identify genes essential for cancer cell survival, which can be targeted for drug development.</t>
-  </si>
-  <si>
-    <t>Sure, here's a summary of the key differences between pseudokinases and kinases in the context of cellular signaling and potential therapeutic targeting:
-Pseudokinases:
-- Structurally similar to kinases but lack key catalytic residues
-- Often act as protein interaction modules
-- Can modulate signaling pathways without catalyzing phosphorylation
-- Potential therapeutic targets due to their regulatory roles in signaling cascades
-Kinases:
-- Catalyze phosphorylation of target proteins to modulate cellular signaling
-- Key players in many signaling pathways, regulating processes such as cell growth and proliferation
-- Widely targeted in drug discovery for various diseases, including cancer and inflammatory disorders
-Overall, understanding the differences between pseudokinases and kinases is crucial for identifying potential therapeutic targets and developing effective treatments for various diseases.</t>
-  </si>
-  <si>
-    <t>- SMARCA4 mutations are associated with poor overall survival in non-small cell lung cancer (NSCLC) patients.
-- SMARCA4 mutations may serve as a useful prognostic marker for NSCLC patients.
-- Further studies are needed to understand the exact mechanisms through which SMARCA4 mutations impact overall survival in NSCLC patients.</t>
-  </si>
-  <si>
-    <t>- SMARCA2 and SMARCA4 are genes involved in regulating gene expression and chromatin remodeling.
-- Mutations in these genes can lead to dysregulated gene expression and chromatin structure, potentially contributing to cancer development and progression.
-- The specific molecular mechanisms of how these mutations impact cancer are still being studied, but they are believed to play a role in promoting tumor growth and metastasis.
-- Understanding the impact of SMARCA2 and SMARCA4 mutations can provide insights for targeted drug development and personalized cancer treatment strategies.</t>
-  </si>
-  <si>
-    <t>- The goal is to identify compounds that selectively kill MSH2 deficient cells
-- MSH2 is a gene involved in DNA repair and its deficiency can lead to cancer
-- The study aims to find compounds that specifically target MSH2 deficient cells for potential therapeutic use</t>
-  </si>
-  <si>
-    <t>- Several drugs have been developed to target BRAF mutations, which are commonly found in various cancers such as melanoma.
-- Some of the prominent drugs targeting BRAF mutations include vemurafenib, dabrafenib, and encorafenib.
-- These drugs belong to a class of medications known as BRAF inhibitors, which work by blocking the activity of mutated BRAF proteins in cancer cells.
-- They have shown significant efficacy in treating BRAF-mutant cancers and have been approved for clinical use in certain cancer types.</t>
-  </si>
-  <si>
-    <t>- Drugs that specifically target ERBB2 in breast cancer include trastuzumab, pertuzumab, and lapatinib
-- Trastuzumab and pertuzumab are monoclonal antibodies that target the HER2 receptor and inhibit its signaling, while lapatinib is a tyrosine kinase inhibitor that blocks the HER2 receptor and EGFR signaling
-- These drugs have shown efficacy in the treatment of ERBB2-positive breast cancer, both in combination with chemotherapy and as part of targeted therapy regimens</t>
-  </si>
-  <si>
-    <t>- The synthetic lethal partner gene of ARID1A is TP53.
-- Synthetic lethality occurs when the combination of mutations in two genes leads to cell death, but a mutation in only one of the genes does not.</t>
-  </si>
-  <si>
-    <t>- Imatinib, an FDA-approved drug, targets specific genes in the treatment of various diseases.
-- In chronic myeloid leukemia (CML), Imatinib targets the BCR-ABL fusion gene, which drives the overproduction of white blood cells.
-- In gastrointestinal stromal tumors (GIST), Imatinib targets the KIT gene, which plays a role in the development of these tumors.
-- Imatinib's mechanism of action involves inhibiting the activity of tyrosine kinase enzymes, which are encoded by the targeted genes, thereby disrupting the signaling pathways that promote cancer growth.</t>
-  </si>
-  <si>
-    <t>- Synthetic lethality was first observed in model organisms such as yeast (Saccharomyces cerevisiae) and fruit flies (Drosophila melanogaster).</t>
-  </si>
-  <si>
-    <t>- Mutations in the Helicase domain of SMARCA4 include missense mutations affecting conserved amino acid residues
-- These mutations are associated with development of small cell carcinoma of the ovary, hypercalcemic type (SCCOHT)</t>
-  </si>
-  <si>
-    <t>- Proteins that have both kinase and pseudokinase domains include:
-  - JAK1
-  - JAK2
-  - JAK3
-  - TYK2</t>
-  </si>
-  <si>
-    <t>- Receptor protein kinases classified as pseudokinases include: HER3 (ErbB3), EphA10, ROR1, and ROR2. Pseudokinases lack key amino acids necessary for kinase activity but still play important regulatory roles in signaling pathways.</t>
-  </si>
-  <si>
-    <t>- SMARCA4 mutations refer to alterations in the SMARCA4 gene, which codes for a protein involved in chromatin remodeling.
-- These mutations have been found to rescue the depletion or knockdown of SMARCA2, another chromatin remodeling protein.
-- Understanding the specific nature of these mutations and their impact on cellular processes could provide insights into potential therapeutic targets for diseases related to chromatin remodeling.</t>
+    <t>[[['What is the definition of synthetic lethality in the context of drug discovery and cancer treatment?'], ['Which gene deletion leads to synthetic lethal inhibition of PRMT5?'], ['"What are the key demographic and clinical characteristics of the patient population described in the paper?"'], ['How many kinases and pseudokinases are encoded in the human genome?'], ['In which cancers is the KRAS oncogene commonly mutated?'], ['What are the known pseudokinases?'], ['"What are the names of well-known tumor suppressor proteins?"'], ['"Which genes show a synthetic lethal relationship with PARP gene expression?"'], ['"What genes can be effectively targeted in combination with BRAF to exploit synthetic lethality mechanisms?"'], ['"In which model organism was synthetic lethality first discovered?"'], ['What is the goal and methodology of Project Achilles in the context of cancer drug discovery and genomics research?'], ['"What are the distinguishing features between pseudokinases and kinases at the molecular and functional levels?"'], ['What is the impact of SMARCA4 mutations on the overall survival of patients with non-small cell lung cancer (NSCLC)?'], ['"What are the molecular mechanisms underlying the role of SMARCA2 and SMARCA4 in cancer progression and potential therapeutic strategies targeting these proteins in cancer treatment?"'], ['"Which compounds exhibit selective lethality towards MSH2 deficient cells?"'], ['"What drugs have been developed to target BRAF mutations in cancer treatment?"'], ['What are the drugs that target ERBB2 in the treatment of breast cancer?'], ['What is the synthetic lethal partner gene of ARID1A in cancer cells?'], ['What are the primary target genes of Imatinib and how do they relate to the efficacy of the drug in treating specific diseases?'], ['"In which model organisms was synthetic lethality first observed?"'], ['"Which specific mutations are commonly found in the helicase domain of the SMARCA4 gene?"'], ['Which proteins exhibit both kinase and pseudokinase domains?'], ['"Which Receptor Protein Kinases have been classified as pseudokinases?"'], ['"Which specific SMARCA4 mutations have been shown to rescue the effects of SMARCA2 depletion or knockdown?"']]]</t>
+  </si>
+  <si>
+    <t>- The concept of synthetic lethality in cancer drug discovery involves identifying targeted therapies that kill cancer cells lacking specific tumor suppressor genes but spare normal cells
+- CRISPR-based functional genomic screening combined with synthetic lethality could lead to the development of more effective cancer drugs and combinations
+- Synthetic lethal interaction data from model organisms, bioinformatic predictions from tumor genome sequencing data, and direct screening of human cancer lines have identified potential drug targets
+- The mechanistic complexities underlying cancer phenotypes need to be unraveled to successfully identify specific targets for selective killing of tumor cells and realize the full potential of personalized anticancer therapeutics</t>
+  </si>
+  <si>
+    <t>- MTAP deletion results in dependency on PRMT5 activity in cancer cells
+- PRMT5 inhibitors can potentially target MTAP-deleted tumors with limited toxicity to normal cells
+- The first effort to exploit this synthetic lethal pair has been with MAT2A inhibitors, with limited efficacy data released
+- MTAP is deleted in approximately 15% of all human cancers, including more than 50% of glioblastomas and 25% of pancreatic cancers
+- Existing PRMT5 inhibitors do not act by the mechanism of MTA cooperative, SAM competitive and kill both MTAP deleted cells and wild type cells at similar exposures
+- References 72 and 73 demonstrate the synthetic lethal interaction between PRMT5 and MTAP deletion</t>
+  </si>
+  <si>
+    <t>- Patient selection is crucial for trial success, especially when targeting specific genetic contexts.
+- Large heterogeneous cell line panels can dilute the signal from a small number of cells, affecting analysis.
+- Fisher’s exact test calculated p-values of co-occurrence, with odds ratios indicating co-occurrence or mutual exclusivity.
+- Kaplan-Meier survival analyses were performed on advanced NSCLC patients in the Flatiron Health network.
+- Data has been deposited in the Genomics Data Commons (GDC) with study accession phs001179.
+- SMARCA4 variants in the study are found in Supplementary Data 1, and additional data is available upon request.</t>
+  </si>
+  <si>
+    <t>- Pseudokinases have evolved from diverse active kinases and are scattered throughout distinct protein kinase subfamilies.
+- There are 28 pseudokinases with homologues in mouse, worms, flies, and yeast that lack equivalent catalytic residues.
+- Human pseudokinases have been classified into seven groups (A to G) based on the motifs in their pseudokinase domain that they lack.
+- The amino acid sequence and description of missing conserved residues of each pseudokinase are reported in a landmark study by Manning and colleagues.
+- Protein kinases regulate the function of a large fraction of cellular proteins by catalyzing covalent attachment of phosphate onto specific residues in target proteins.
+- Genome-wide analyses have revealed that 2410 of eukaryotic proteins lack conserved amino acids in the kinase domain, rendering them catalytically inactive.
+- Pseudokinases lack at least one of three essential motifs in the catalytic domain necessary for catalysis, including the VAIK motif, HRD motif, and DFG motif.
+- The human genome encodes 518 protein kinases, with 48 classified as pseudokinases.</t>
+  </si>
+  <si>
+    <t>- Different mutations in KRAS have varying sensitivities to tyrosine protein phosphatase non-receptor type 11 (PTPN11) inhibitors
+- KRAS mutations co-occurring with SMARCA4 or KEAP1 loss of function show reduced dependency on KRAS compared to those with wild type SMARCA4 or KEAP1 function
+- Synthetic lethality (SSL) interaction studies have been extended to target oncogenes with limited pharmacological tractability, such as KRAS
+- Functional genomic screens, like high-throughput loss-of-function screens, are being used for target discovery and to identify synthetic lethal gene pairs
+- Large-scale target discovery approaches emphasize the importance of considering additional genetic context in target discovery and suggest mutation subtyping may be needed for patient selection</t>
+  </si>
+  <si>
+    <t>- Pseudokinases are inactive kinases because they lack essential catalytic residues.
+- There are 48 human proteins classified as pseudokinases.
+- Pseudokinases are found in distinct protein kinase subfamilies and have evolved from diverse active kinases.
+- Human pseudokinases are classified into seven groups according to the three motifs in their pseudokinase domain that they lack.
+- Sequence analysis shows that pseudokinases lack at least one of three essential motifs for catalysis in the kinase domain.</t>
+  </si>
+  <si>
+    <t>- Tumour suppressor gene loss is undruggable, as the function and often the genes themselves are lost
+- Identification of druggable synthetic lethal partners is the only way of targeting the functional loss of tumour suppressor genes in cancer
+- Discovery of PARP inhibition and BRCA1 or BRCA2 mutation as a synthetic lethal interaction has been translated into clinical benefit for patients
+- This discovery was hypothesis-driven and was blessed by a bit of good luck
+- Large scale next-generation whole exome sequencing data has been used to define the landscape of tumour suppressor genes and oncogenes across 21 different cancer types
+- Examination of the functions of contiguous genes that are homozygously deleted along with tumour suppressor genes may help uncover cancer-cell vulnerabilities to pharmacological attack</t>
+  </si>
+  <si>
+    <t>- The study focuses on the discovery of the PARP-BRCA2 synthetic lethal relationship using a pharmacologic PARP inhibitor and isogenic mouse embryo fibroblast cell lines.
+- The interaction between polyADP ribose polymerase 1 (PARP1) and the breast cancer susceptibility gene BRCA1 can be suppressed by the loss of components of the nonhomologous end-joining pathway or the loss of p53.
+- Synthetic lethality between tumor cells and healthy cells can be exploited through the combination of PARP inhibitors and DNA-damaging agents, which could be caused by tumor-specific mutations.
+- High-throughput approaches are necessary to identify synthetic lethal interactions, given the numerous potential tumor query genes, potential synthetic lethal partner genes, and various conditions.
+- The concept of conditional synthetic lethality as proposed by Hartwell et al. describes the viability of cells being dependent on the presence or absence of certain gene products and conditions, leading to synthetic lethality.</t>
+  </si>
+  <si>
+    <t>- The given information discusses the use of synthetic lethality in cancer treatment.
+- Synthetic lethality involves inactivation of one gene and pharmacological inhibition of another for cancer cell death, while sparing normal cells.
+- Specific genetic interactions have been identified, such as between STK33 and oncogenic KRAS, and between SMARCA2 and SMARCA4 in cancer cells.
+- The approach holds promise for improving the diagnosis and treatment of cancer.
+- The power of CRISPR-based functional genomic screening technology is highlighted as offering a path forward in this field.</t>
+  </si>
+  <si>
+    <t>- Synthetic lethality is a genetic interaction where the mutation of either of two genes is viable but the mutation of both together is lethal.
+- Initially identified through loss of function screens in model organisms like yeast, the concept has potential for cancer drug discovery if relevant homologues in human cells exist.
+- RNAi technology broadened the application of synthetic lethality concepts to human cell line systems, leading to subsequent screening efforts in cancer cells.
+- Large-scale synthetic lethal genetic interaction screens have been conducted in budding yeast and fission yeast due to available high-throughput technologies.
+- Advances in RNA interference (RNAi) and CRISPR technology have enabled large-scale unbiased synthetic lethality screening directly in human cell cultures.
+- There is literature supporting the application of synthetic lethality for identifying novel vulnerabilities in cancer cells and choosing anticancer drug targets.</t>
+  </si>
+  <si>
+    <t>- Project Achilles aims to increase understanding of cancer biology by creating a genome-wide catalogue of tumor vulnerabilities associated with genetic and epigenetic alterations.
+- The initiative uses functional genomic screening techniques such as Short hairpin RNA (shRNA) and CRISPR-based screening on cancer cell lines to interrogate gene essentiality.
+- Project DRIVE, led by Novartis, conducts large-scale RNAi screening of almost 400 cancer cell lines to define cancer dependency genes.
+- Efficient and comprehensive drug target and combination discovery requires tailored refinements to specific applications, as the current data lack representation for certain cancer subtypes and histologies.
+- For example, there are no cell lines for human papillomavirus positive head and neck cancer, representing over half of all newly diagnosed head and neck cancer cases in the United States.
+- Context-specific analyses are hindered by insufficient representation of certain cancer subtypes, which limits the effectiveness of synthetic lethal drug target discovery.
+- The authors thank CP Johnson and K Briggs for helpful discussions and preparation of the manuscript, and F Li and T Teng for curation and analysis of the Project Achilles dataset.</t>
+  </si>
+  <si>
+    <t>- Pseudokinases are inactive kinases with a kinaselike domain lacking conserved catalytic residues.
+- They have been classified into seven groups (A to G) based on the missing motifs in their pseudokinase domain.
+- Research suggests that pseudokinases still play pivotal roles in regulating diverse cellular processes, despite lacking the ability to phosphorylate substrates.
+- Pseudokinases have been implicated in regulating the function of other kinases, such as the pseudokinase STRAD controlling the tumor suppressor kinase LKB1.
+- Understanding the functions of pseudokinases is crucial for elucidating human diseases, and further structural and systematic analysis is needed to uncover their mechanisms and protein-binding partners.</t>
+  </si>
+  <si>
+    <t>- SMARCA4 mutations are mutually exclusive with prevalent targeted oncogenes in NSCLC including EGFR, ALK, MET, ROS1, and RET P12E34 EGFR alterations.
+- NSCLC patients with homozygous SMARCA4 alterations have worse outcomes.
+- NSCLC patients with homozygous truncating SMARCA4 mutations have significantly reduced overall survival.
+- They also have worse overall survival when treated with checkpoint immunotherapy targeting PD1/PDL1.
+- 90% of patients have only one SMARCA4 mutation, with significant higher TMB in those with a single alteration.
+- NSCLC and cancer of unknown primary (CUP) have a high prevalence of homozygous SMARCA4 mutations, suggesting clear loss-of-function.</t>
+  </si>
+  <si>
+    <t>- Research focuses on improving the diagnosis and treatment of cancer.
+- Synthetic lethal interactions have been identified between specific genes in cancer cells.
+- SMARCA2 and SMARCA4 mutations are linked to oncogenic drive in cancer.
+- SMARCA2 deficiency confers sensitivity to targeted inhibition of SMARCA4 in certain cancers.
+- BAF complex vulnerabilities in cancer have been demonstrated, aiding in drug target identification.
+- SMARCA4 mutations are recurrent in small cell carcinoma of the ovary.
+- PRC2-mediated repression of SMARCA2 predicts EZH2 inhibitor activity in SWI/SNF mutant tumors.
+- ARID1B is a specific vulnerability in ARID1A-mutant cancers.</t>
+  </si>
+  <si>
+    <t>- The studies mentioned explore synthetic lethality interactions in cancer cells, particularly MSH2 deficient cells.
+- Multiple approaches, including high-throughput RNAi screens and chemical library screens, were used to identify potential synthetic lethal interactions.
+- The identified interactions were revalidated using numerous siRNA and inhibitors targeting the same gene on appropriate cell models before proceeding to xenograft studies and clinical trials.
+- Methotrexate was identified as selectively lethal to MSH2 deficient cells, leading to a phase 2 non-randomized clinical trial for MSH2 deficient metastatic colorectal cancer.</t>
+  </si>
+  <si>
+    <t>- Studies on BRAF inhibitors such as vemurafenib and dabrafenib show promise in treating BRAF mutant melanoma and colorectal cancer.
+- Combination therapy involving RAF and EGFR inhibitors has shown enhanced efficacy in BRAF mutant colon cancer.
+- Identifying combination drug targets can improve the efficacy of BRAF inhibitors in different types of cancer.
+- EGFR inhibitors in combination with BRAF inhibitors doubled the response rate in BRAF mutant colon cancer.
+- Vemurafenib has a 50-60% overall response rate in melanoma but only a 5% response rate in colon cancers with BRAF mutations.
+- These findings support the potential of combination therapies for improved treatment outcomes in BRAF mutant cancers.</t>
+  </si>
+  <si>
+    <t>The given information contains data related to the signaling pathways of receptor tyrosine kinases, particularly the EGF receptor/erbB3 chimera and the ErbB2/ErbB3 heterodimer. It also discusses the selective inhibition of CDK4/6 in ER-positive breast cancer cells and the synergy with estrogen blockade. Additionally, it highlights the context-dependent role of CDK4/6 as an unmarked oncogene in breast cancer.
+- Signaling pathways of receptor tyrosine kinases
+- Selective inhibition of CDK4/6 in ER-positive breast cancer cells
+- Synergy of CDK4/6 inhibition with estrogen blockade
+- Context-dependent role of CDK4/6 as an oncogene in breast cancer</t>
+  </si>
+  <si>
+    <t>- ARID1A is mutationally inactivated in 60% of ovarian clear cell carcinomas and frequently mutated in other histologies. 
+- The Project Achilles dataset does not identify any druggable ARID1A synthetic lethal interactions, but ARID1B is a strong synthetic lethal partner with ARID1A.
+- Pharmacologic inhibition of EGLN1 selectively kills ARID1A mutant ovarian cancer cells, suggesting that EGLN inhibitors may be effective in treating women with ovarian clear cell carcinoma.
+- Synthetic lethality involves a cancer-specific mutation in one gene and a drug target in another, and has been identified through loss of function screens in model organisms and human cell line systems.
+- DNA polymerase POLQ is a synthetic lethal drug target discoverable only through analysis of cell lines with specific genetic contexts, such as BRCA1mutant and BRCA2mutant cancers.</t>
+  </si>
+  <si>
+    <t>- Imatinib mesylate (Glivec) has shown long-term efficacy and safety in treating chronic myeloid leukemia (CML) and gastrointestinal stromal tumors (GIST).
+- It inhibits the kinase activities of BCR-ABL and ABL, among other cellular kinases, leading to a relatively high therapeutic index.
+These findings are supported by several studies, including:
+- Hochhaus et al. (2017) demonstrated long-term outcomes of imatinib treatment for CML.
+- Druker et al. (2006) reported on a five-year follow-up of CML patients receiving imatinib.
+- Kantarjian et al. (2012) observed improved survival in CML since the introduction of imatinib therapy.
+- Blanke et al. (2004, 2008) conducted randomized trials showing efficacy in GIST treatment.
+Imatinib mesylate's effectiveness is not solely due to its specific targets, and the development of drugs targeting oncoproteins may face challenges related to their normal counterparts.</t>
+  </si>
+  <si>
+    <t>- Synthetic lethality involves a lethal interaction between two genes where a perturbation affecting either gene alone is viable
+- Identification of synthetic lethal pairs relevant to human disease was initially limited to loss of function screens in model organisms
+- Genetic interaction maps in yeast were generated through genetic screening and crossing of knockout strains
+- RNAi technology broadened the application of synthetic lethality concepts to human cell line systems
+- Largescale synthetic lethal genetic interaction screens have been carried out in budding yeast or fission yeast due to availability of high-throughput technologies
+- Advances in RNA interference and CRISPR technology now enable largescale unbiased synthetic lethality screening directly in human cell culture
+- The application of synthetic lethality using yeast genetic screens has been proposed to identify vulnerabilities in cancer cells based on defined genetic defects</t>
+  </si>
+  <si>
+    <t>- The study identified 10,562 SMARCA4 variants, including 6,289 missense mutations, by sequencing tumors from 131,668 patients.
+- Hotspot missense mutations occurred within the ATP-binding cleft, DNA binding regions, and brace helices.
+- Frequently mutated residues lie within highly conserved regions of SMARCA4, including certain residues within the ATP binding pocket.
+- SMARCA4 missense mutants have reduced remodeling activity.
+- SMARCA4 R1135 and R1157 are similarly mutated at equivalent sites in other SNF2 family helicases, indicating potential functional importance.
+- Many mutations are predicted to radically change the physiochemical properties of these residues.
+- Enrichment of SMARCA2 binding was observed in certain regions, indicating their potential functional importance.</t>
+  </si>
+  <si>
+    <t>- Pseudokinases are scattered throughout different protein kinase subfamilies, suggesting diverse evolutionary origins
+- 28 pseudokinases have homologues across various species lacking equivalent catalytic residues
+- Human pseudokinases are classified into seven groups (A to G) based on the motifs in their pseudokinase domain that they lack
+- Some pseudokinase domains are part of larger multidomain proteins and likely have independent functions
+- Some kinases, like WNK1, without essential catalytic residues can still be active
+- Pseudokinases, despite being inactive in phosphorylating substrates, play pivotal roles in regulating cellular processes
+- Examples include the pseudokinase STRAD controlling the tumor suppressor kinase LKB1 and the tyrosine kinase JAK2</t>
+  </si>
+  <si>
+    <t>- Pseudokinases are found throughout distinct protein kinase subfamilies and have evolved from diverse active kinases
+- Human pseudokinases are classified into seven groups (A to G) based on the motifs in their pseudokinase domain
+- A comparison of the domain structures of all human pseudokinases is shown in Figure 2
+- Several pseudokinases form complexes with active protein kinases, possibly contributing to any measured activity
+- Pseudokinases similar to receptor tyrosine kinases (RTKs) include HER3, EphA10, EphB6, and CCK4
+- Pseudokinase abbreviations include ANP, CAK1, CASK, CYGF, Drl, Eph, ErbB, MLKL, NRBP, and others</t>
+  </si>
+  <si>
+    <t>- Mutant SMARCA4 (A1186T and R973L) rescued growth defects observed after SMARCA2 depletion despite negligible chromatin remodeling activity.
+- The rescue effects seen with SMARCA4 mutants were validated with CRISPR/Cas9 knockout of SMARCA2.
+- ATAC-seq showed a marked decrease in chromatin accessibility after SMARCA2 depletion, which was completely rescued with SMARCA4 WT.
+- The decrease in accessibility after SMARCA2 knockdown was strongest in the LACZ control relative to the LOF mutant lines.
+- SMARCA4 missense mutants were unable to fully rescue SMARCA2 knockdown, confirming their loss-of-function status.
+- SMARCA4 mutants (K785R, E882K, T910M, R1135W, G1162C, R1192C, G1232S) are confirmed to be loss-of-function.</t>
   </si>
   <si>
     <t>Potential of the Synthetic Lethality Principle</t>
@@ -647,7 +722,7 @@
         <v>33</v>
       </c>
       <c r="E2">
-        <v>6.556681871414185</v>
+        <v>6.873645782470703</v>
       </c>
       <c r="F2" t="s">
         <v>57</v>
@@ -670,7 +745,7 @@
         <v>34</v>
       </c>
       <c r="E3">
-        <v>4.643312931060791</v>
+        <v>6.658562183380127</v>
       </c>
       <c r="F3" t="s">
         <v>58</v>
@@ -693,7 +768,7 @@
         <v>35</v>
       </c>
       <c r="E4">
-        <v>6.032518148422241</v>
+        <v>7.00862193107605</v>
       </c>
       <c r="F4" t="s">
         <v>59</v>
@@ -716,7 +791,7 @@
         <v>36</v>
       </c>
       <c r="E5">
-        <v>4.609100103378296</v>
+        <v>6.474276065826416</v>
       </c>
       <c r="F5" t="s">
         <v>60</v>
@@ -739,7 +814,7 @@
         <v>37</v>
       </c>
       <c r="E6">
-        <v>6.469615936279297</v>
+        <v>7.904694795608521</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -762,7 +837,7 @@
         <v>38</v>
       </c>
       <c r="E7">
-        <v>5.528203964233398</v>
+        <v>7.19421911239624</v>
       </c>
       <c r="F7" t="s">
         <v>60</v>
@@ -785,7 +860,7 @@
         <v>39</v>
       </c>
       <c r="E8">
-        <v>6.105110168457031</v>
+        <v>8.131659984588623</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -808,7 +883,7 @@
         <v>40</v>
       </c>
       <c r="E9">
-        <v>6.721163988113403</v>
+        <v>7.440968751907349</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -831,7 +906,7 @@
         <v>41</v>
       </c>
       <c r="E10">
-        <v>5.519343852996826</v>
+        <v>5.969866991043091</v>
       </c>
       <c r="F10" t="s">
         <v>57</v>
@@ -854,7 +929,7 @@
         <v>42</v>
       </c>
       <c r="E11">
-        <v>4.674508810043335</v>
+        <v>9.078709125518799</v>
       </c>
       <c r="F11" t="s">
         <v>57</v>
@@ -877,7 +952,7 @@
         <v>43</v>
       </c>
       <c r="E12">
-        <v>5.522558927536011</v>
+        <v>7.186220169067383</v>
       </c>
       <c r="F12" t="s">
         <v>58</v>
@@ -900,7 +975,7 @@
         <v>44</v>
       </c>
       <c r="E13">
-        <v>7.918282032012939</v>
+        <v>6.650992870330811</v>
       </c>
       <c r="F13" t="s">
         <v>60</v>
@@ -923,7 +998,7 @@
         <v>45</v>
       </c>
       <c r="E14">
-        <v>5.488075971603394</v>
+        <v>7.843321084976196</v>
       </c>
       <c r="F14" t="s">
         <v>59</v>
@@ -946,7 +1021,7 @@
         <v>46</v>
       </c>
       <c r="E15">
-        <v>6.041021108627319</v>
+        <v>7.970502853393555</v>
       </c>
       <c r="F15" t="s">
         <v>59</v>
@@ -969,7 +1044,7 @@
         <v>47</v>
       </c>
       <c r="E16">
-        <v>6.15079402923584</v>
+        <v>6.018316984176636</v>
       </c>
       <c r="F16" t="s">
         <v>61</v>
@@ -992,7 +1067,7 @@
         <v>48</v>
       </c>
       <c r="E17">
-        <v>5.977633953094482</v>
+        <v>5.756966829299927</v>
       </c>
       <c r="F17" t="s">
         <v>58</v>
@@ -1015,7 +1090,7 @@
         <v>49</v>
       </c>
       <c r="E18">
-        <v>5.804263114929199</v>
+        <v>7.515148162841797</v>
       </c>
       <c r="F18" t="s">
         <v>61</v>
@@ -1038,7 +1113,7 @@
         <v>50</v>
       </c>
       <c r="E19">
-        <v>6.392356157302856</v>
+        <v>7.943243026733398</v>
       </c>
       <c r="F19" t="s">
         <v>58</v>
@@ -1061,7 +1136,7 @@
         <v>51</v>
       </c>
       <c r="E20">
-        <v>6.197123765945435</v>
+        <v>6.616729259490967</v>
       </c>
       <c r="F20" t="s">
         <v>58</v>
@@ -1084,7 +1159,7 @@
         <v>52</v>
       </c>
       <c r="E21">
-        <v>4.661239147186279</v>
+        <v>6.939851045608521</v>
       </c>
       <c r="F21" t="s">
         <v>61</v>
@@ -1107,7 +1182,7 @@
         <v>53</v>
       </c>
       <c r="E22">
-        <v>5.612816095352173</v>
+        <v>6.48095703125</v>
       </c>
       <c r="F22" t="s">
         <v>59</v>
@@ -1130,7 +1205,7 @@
         <v>54</v>
       </c>
       <c r="E23">
-        <v>5.590424776077271</v>
+        <v>7.890395164489746</v>
       </c>
       <c r="F23" t="s">
         <v>60</v>
@@ -1153,7 +1228,7 @@
         <v>55</v>
       </c>
       <c r="E24">
-        <v>5.605251789093018</v>
+        <v>7.114392995834351</v>
       </c>
       <c r="F24" t="s">
         <v>60</v>
@@ -1176,7 +1251,7 @@
         <v>56</v>
       </c>
       <c r="E25">
-        <v>6.102248907089233</v>
+        <v>6.600326061248779</v>
       </c>
       <c r="F25" t="s">
         <v>59</v>

--- a/files/galen_results_gpt4_rag.xlsx
+++ b/files/galen_results_gpt4_rag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc550e96591139bd/SM_RK Shared folder/Coding_Analysis/Galen/Galen Evals/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_AC6EFFC98D492DFA96170BAC231DD27B5128F6BE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C92D031D-BCDC-7348-B5BB-9A22C694F14A}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_AC6EFFC98D492DFA96170BAC231DD27B5128F6BE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED38CFA8-8335-3A43-80EA-43A88AAA69F8}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="-21100" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18000" yWindow="880" windowWidth="18000" windowHeight="20960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2520,10 +2520,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2540,6 +2546,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2831,27 +2841,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G144"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="408" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="40.33203125" customWidth="1"/>
+    <col min="2" max="2" width="62.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+    <col min="4" max="4" width="117.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -2864,17 +2875,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>128</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>129</v>
       </c>
       <c r="E2">
@@ -2887,17 +2898,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>128</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E3">
@@ -2910,17 +2921,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>128</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>131</v>
       </c>
       <c r="E4">
@@ -2933,17 +2944,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>128</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>132</v>
       </c>
       <c r="E5">
@@ -2956,17 +2967,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>128</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>133</v>
       </c>
       <c r="E6">
@@ -2979,17 +2990,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>128</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>134</v>
       </c>
       <c r="E7">
@@ -3002,17 +3013,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>128</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>135</v>
       </c>
       <c r="E8">
@@ -3025,17 +3036,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>128</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>136</v>
       </c>
       <c r="E9">
@@ -3048,17 +3059,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>128</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>137</v>
       </c>
       <c r="E10">
@@ -3071,17 +3082,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>128</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>138</v>
       </c>
       <c r="E11">
@@ -3094,17 +3105,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C12" t="s">
         <v>128</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>139</v>
       </c>
       <c r="E12">
@@ -3117,17 +3128,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>128</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>140</v>
       </c>
       <c r="E13">
@@ -3140,17 +3151,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>128</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>141</v>
       </c>
       <c r="E14">
@@ -3163,17 +3174,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>128</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>142</v>
       </c>
       <c r="E15">
@@ -3186,17 +3197,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>128</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>143</v>
       </c>
       <c r="E16">
@@ -3209,17 +3220,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>128</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>144</v>
       </c>
       <c r="E17">
@@ -3232,17 +3243,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>128</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>145</v>
       </c>
       <c r="E18">
@@ -3255,17 +3266,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C19" t="s">
         <v>128</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>146</v>
       </c>
       <c r="E19">
@@ -3278,17 +3289,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C20" t="s">
         <v>128</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>147</v>
       </c>
       <c r="E20">
@@ -3301,17 +3312,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C21" t="s">
         <v>128</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>148</v>
       </c>
       <c r="E21">
@@ -3324,17 +3335,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C22" t="s">
         <v>128</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>149</v>
       </c>
       <c r="E22">
@@ -3347,17 +3358,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C23" t="s">
         <v>128</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>150</v>
       </c>
       <c r="E23">
@@ -3370,17 +3381,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C24" t="s">
         <v>128</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>151</v>
       </c>
       <c r="E24">
@@ -3393,17 +3404,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C25" t="s">
         <v>128</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
         <v>152</v>
       </c>
       <c r="E25">
@@ -3416,17 +3427,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C26" t="s">
         <v>128</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>153</v>
       </c>
       <c r="E26">
@@ -3439,17 +3450,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C27" t="s">
         <v>128</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="3" t="s">
         <v>154</v>
       </c>
       <c r="E27">
@@ -3462,17 +3473,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C28" t="s">
         <v>128</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="3" t="s">
         <v>155</v>
       </c>
       <c r="E28">
@@ -3485,17 +3496,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C29" t="s">
         <v>128</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="3" t="s">
         <v>156</v>
       </c>
       <c r="E29">
@@ -3508,17 +3519,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C30" t="s">
         <v>128</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
         <v>157</v>
       </c>
       <c r="E30">
@@ -3531,17 +3542,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>128</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="3" t="s">
         <v>158</v>
       </c>
       <c r="E31">
@@ -3554,17 +3565,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>7</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C32" t="s">
         <v>128</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="3" t="s">
         <v>159</v>
       </c>
       <c r="E32">
@@ -3577,17 +3588,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>7</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C33" t="s">
         <v>128</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="3" t="s">
         <v>160</v>
       </c>
       <c r="E33">
@@ -3600,17 +3611,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C34" t="s">
         <v>128</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="3" t="s">
         <v>161</v>
       </c>
       <c r="E34">
@@ -3623,17 +3634,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>7</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C35" t="s">
         <v>128</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="3" t="s">
         <v>162</v>
       </c>
       <c r="E35">
@@ -3646,17 +3657,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>7</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C36" t="s">
         <v>128</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="3" t="s">
         <v>163</v>
       </c>
       <c r="E36">
@@ -3669,17 +3680,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>7</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C37" t="s">
         <v>128</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="3" t="s">
         <v>164</v>
       </c>
       <c r="E37">
@@ -3692,17 +3703,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>7</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C38" t="s">
         <v>128</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="3" t="s">
         <v>165</v>
       </c>
       <c r="E38">
@@ -3715,17 +3726,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>7</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C39" t="s">
         <v>128</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="3" t="s">
         <v>166</v>
       </c>
       <c r="E39">
@@ -3738,17 +3749,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>7</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C40" t="s">
         <v>128</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="3" t="s">
         <v>167</v>
       </c>
       <c r="E40">
@@ -3761,17 +3772,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>7</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C41" t="s">
         <v>128</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="3" t="s">
         <v>168</v>
       </c>
       <c r="E41">
@@ -3784,17 +3795,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>7</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C42" t="s">
         <v>128</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="3" t="s">
         <v>169</v>
       </c>
       <c r="E42">
@@ -3807,17 +3818,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>7</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C43" t="s">
         <v>128</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="3" t="s">
         <v>170</v>
       </c>
       <c r="E43">
@@ -3830,17 +3841,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>7</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C44" t="s">
         <v>128</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="3" t="s">
         <v>171</v>
       </c>
       <c r="E44">
@@ -3853,17 +3864,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>7</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C45" t="s">
         <v>128</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="3" t="s">
         <v>172</v>
       </c>
       <c r="E45">
@@ -3876,17 +3887,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>7</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C46" t="s">
         <v>128</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="3" t="s">
         <v>173</v>
       </c>
       <c r="E46">
@@ -3899,17 +3910,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>7</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C47" t="s">
         <v>128</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="3" t="s">
         <v>174</v>
       </c>
       <c r="E47">
@@ -3922,17 +3933,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>7</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C48" t="s">
         <v>128</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="3" t="s">
         <v>175</v>
       </c>
       <c r="E48">
@@ -3945,17 +3956,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>7</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C49" t="s">
         <v>128</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="3" t="s">
         <v>176</v>
       </c>
       <c r="E49">
@@ -3968,17 +3979,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>7</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C50" t="s">
         <v>128</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="3" t="s">
         <v>177</v>
       </c>
       <c r="E50">
@@ -3991,17 +4002,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>7</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C51" t="s">
         <v>128</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="3" t="s">
         <v>178</v>
       </c>
       <c r="E51">
@@ -4014,17 +4025,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>7</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C52" t="s">
         <v>128</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="3" t="s">
         <v>179</v>
       </c>
       <c r="E52">
@@ -4037,17 +4048,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>7</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C53" t="s">
         <v>128</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="3" t="s">
         <v>180</v>
       </c>
       <c r="E53">
@@ -4060,17 +4071,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>7</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C54" t="s">
         <v>128</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="3" t="s">
         <v>181</v>
       </c>
       <c r="E54">
@@ -4083,17 +4094,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>7</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C55" t="s">
         <v>128</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="3" t="s">
         <v>182</v>
       </c>
       <c r="E55">
@@ -4106,17 +4117,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>7</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C56" t="s">
         <v>128</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="3" t="s">
         <v>183</v>
       </c>
       <c r="E56">
@@ -4129,17 +4140,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>7</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C57" t="s">
         <v>128</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="3" t="s">
         <v>184</v>
       </c>
       <c r="E57">
@@ -4152,17 +4163,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>7</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C58" t="s">
         <v>128</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="3" t="s">
         <v>185</v>
       </c>
       <c r="E58">
@@ -4175,17 +4186,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>7</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C59" t="s">
         <v>128</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="3" t="s">
         <v>186</v>
       </c>
       <c r="E59">
@@ -4198,17 +4209,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>7</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C60" t="s">
         <v>128</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="3" t="s">
         <v>187</v>
       </c>
       <c r="E60">
@@ -4221,17 +4232,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>7</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C61" t="s">
         <v>128</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="3" t="s">
         <v>188</v>
       </c>
       <c r="E61">
@@ -4244,17 +4255,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>7</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C62" t="s">
         <v>128</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="3" t="s">
         <v>189</v>
       </c>
       <c r="E62">
@@ -4267,17 +4278,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>7</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C63" t="s">
         <v>128</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="3" t="s">
         <v>190</v>
       </c>
       <c r="E63">
@@ -4290,17 +4301,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>7</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C64" t="s">
         <v>128</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="3" t="s">
         <v>191</v>
       </c>
       <c r="E64">
@@ -4313,17 +4324,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>7</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C65" t="s">
         <v>128</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="3" t="s">
         <v>192</v>
       </c>
       <c r="E65">
@@ -4336,17 +4347,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>7</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C66" t="s">
         <v>128</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="3" t="s">
         <v>193</v>
       </c>
       <c r="E66">
@@ -4359,17 +4370,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>7</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C67" t="s">
         <v>128</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="3" t="s">
         <v>194</v>
       </c>
       <c r="E67">
@@ -4382,17 +4393,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>7</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C68" t="s">
         <v>128</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="3" t="s">
         <v>195</v>
       </c>
       <c r="E68">
@@ -4405,17 +4416,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>7</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C69" t="s">
         <v>128</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="3" t="s">
         <v>196</v>
       </c>
       <c r="E69">
@@ -4428,17 +4439,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>7</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C70" t="s">
         <v>128</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="3" t="s">
         <v>197</v>
       </c>
       <c r="E70">
@@ -4451,17 +4462,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>7</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C71" t="s">
         <v>128</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="3" t="s">
         <v>198</v>
       </c>
       <c r="E71">
@@ -4474,17 +4485,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>7</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C72" t="s">
         <v>128</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="3" t="s">
         <v>199</v>
       </c>
       <c r="E72">
@@ -4497,17 +4508,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>7</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C73" t="s">
         <v>128</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="3" t="s">
         <v>200</v>
       </c>
       <c r="E73">
@@ -4520,17 +4531,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>7</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C74" t="s">
         <v>128</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="3" t="s">
         <v>201</v>
       </c>
       <c r="E74">
@@ -4543,17 +4554,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>7</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C75" t="s">
         <v>128</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="3" t="s">
         <v>202</v>
       </c>
       <c r="E75">
@@ -4566,17 +4577,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>7</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C76" t="s">
         <v>128</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="3" t="s">
         <v>203</v>
       </c>
       <c r="E76">
@@ -4589,17 +4600,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>7</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C77" t="s">
         <v>128</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="3" t="s">
         <v>204</v>
       </c>
       <c r="E77">
@@ -4612,17 +4623,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>7</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C78" t="s">
         <v>128</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="3" t="s">
         <v>205</v>
       </c>
       <c r="E78">
@@ -4635,17 +4646,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>7</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C79" t="s">
         <v>128</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="3" t="s">
         <v>206</v>
       </c>
       <c r="E79">
@@ -4658,17 +4669,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>7</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C80" t="s">
         <v>128</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="3" t="s">
         <v>207</v>
       </c>
       <c r="E80">
@@ -4681,17 +4692,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>7</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C81" t="s">
         <v>128</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="3" t="s">
         <v>208</v>
       </c>
       <c r="E81">
@@ -4704,17 +4715,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>7</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C82" t="s">
         <v>128</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="3" t="s">
         <v>209</v>
       </c>
       <c r="E82">
@@ -4727,17 +4738,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>7</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C83" t="s">
         <v>128</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="3" t="s">
         <v>210</v>
       </c>
       <c r="E83">
@@ -4750,17 +4761,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>7</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C84" t="s">
         <v>128</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="3" t="s">
         <v>211</v>
       </c>
       <c r="E84">
@@ -4773,17 +4784,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>7</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C85" t="s">
         <v>128</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="3" t="s">
         <v>212</v>
       </c>
       <c r="E85">
@@ -4796,17 +4807,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>7</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C86" t="s">
         <v>128</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="3" t="s">
         <v>213</v>
       </c>
       <c r="E86">
@@ -4819,17 +4830,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>7</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C87" t="s">
         <v>128</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="3" t="s">
         <v>214</v>
       </c>
       <c r="E87">
@@ -4842,17 +4853,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>7</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C88" t="s">
         <v>128</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="3" t="s">
         <v>215</v>
       </c>
       <c r="E88">
@@ -4865,17 +4876,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>7</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C89" t="s">
         <v>128</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="3" t="s">
         <v>216</v>
       </c>
       <c r="E89">
@@ -4888,17 +4899,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>7</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C90" t="s">
         <v>128</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="3" t="s">
         <v>217</v>
       </c>
       <c r="E90">
@@ -4911,17 +4922,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>7</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C91" t="s">
         <v>128</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="3" t="s">
         <v>218</v>
       </c>
       <c r="E91">
@@ -4934,17 +4945,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>7</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C92" t="s">
         <v>128</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="3" t="s">
         <v>219</v>
       </c>
       <c r="E92">
@@ -4957,17 +4968,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>7</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C93" t="s">
         <v>128</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="3" t="s">
         <v>220</v>
       </c>
       <c r="E93">
@@ -4980,17 +4991,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>7</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C94" t="s">
         <v>128</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="3" t="s">
         <v>221</v>
       </c>
       <c r="E94">
@@ -5003,17 +5014,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>7</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C95" t="s">
         <v>128</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="3" t="s">
         <v>222</v>
       </c>
       <c r="E95">
@@ -5026,17 +5037,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>7</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C96" t="s">
         <v>128</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="3" t="s">
         <v>223</v>
       </c>
       <c r="E96">
@@ -5049,17 +5060,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>7</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C97" t="s">
         <v>128</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="3" t="s">
         <v>224</v>
       </c>
       <c r="E97">
@@ -5072,17 +5083,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>7</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C98" t="s">
         <v>128</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="3" t="s">
         <v>225</v>
       </c>
       <c r="E98">
@@ -5095,17 +5106,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>7</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C99" t="s">
         <v>128</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="3" t="s">
         <v>226</v>
       </c>
       <c r="E99">
@@ -5118,17 +5129,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>7</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C100" t="s">
         <v>128</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="3" t="s">
         <v>227</v>
       </c>
       <c r="E100">
@@ -5141,17 +5152,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>7</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C101" t="s">
         <v>128</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="3" t="s">
         <v>228</v>
       </c>
       <c r="E101">
@@ -5164,17 +5175,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>7</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C102" t="s">
         <v>128</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="3" t="s">
         <v>229</v>
       </c>
       <c r="E102">
@@ -5187,17 +5198,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>7</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C103" t="s">
         <v>128</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="3" t="s">
         <v>230</v>
       </c>
       <c r="E103">
@@ -5210,17 +5221,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>7</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C104" t="s">
         <v>128</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="3" t="s">
         <v>231</v>
       </c>
       <c r="E104">
@@ -5233,17 +5244,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>7</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C105" t="s">
         <v>128</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="3" t="s">
         <v>232</v>
       </c>
       <c r="E105">
@@ -5256,17 +5267,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>7</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C106" t="s">
         <v>128</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="3" t="s">
         <v>233</v>
       </c>
       <c r="E106">
@@ -5279,17 +5290,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>7</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C107" t="s">
         <v>128</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="3" t="s">
         <v>234</v>
       </c>
       <c r="E107">
@@ -5302,17 +5313,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>7</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C108" t="s">
         <v>128</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="3" t="s">
         <v>235</v>
       </c>
       <c r="E108">
@@ -5325,17 +5336,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>7</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C109" t="s">
         <v>128</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="3" t="s">
         <v>236</v>
       </c>
       <c r="E109">
@@ -5348,17 +5359,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>7</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C110" t="s">
         <v>128</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="3" t="s">
         <v>237</v>
       </c>
       <c r="E110">
@@ -5371,17 +5382,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>7</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C111" t="s">
         <v>128</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="3" t="s">
         <v>238</v>
       </c>
       <c r="E111">
@@ -5394,17 +5405,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>7</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="3" t="s">
         <v>95</v>
       </c>
       <c r="C112" t="s">
         <v>128</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="3" t="s">
         <v>239</v>
       </c>
       <c r="E112">
@@ -5417,17 +5428,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>7</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C113" t="s">
         <v>128</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="3" t="s">
         <v>240</v>
       </c>
       <c r="E113">
@@ -5440,17 +5451,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>7</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C114" t="s">
         <v>128</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="3" t="s">
         <v>241</v>
       </c>
       <c r="E114">
@@ -5463,17 +5474,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>7</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C115" t="s">
         <v>128</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="3" t="s">
         <v>242</v>
       </c>
       <c r="E115">
@@ -5486,17 +5497,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>7</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C116" t="s">
         <v>128</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="3" t="s">
         <v>243</v>
       </c>
       <c r="E116">
@@ -5509,17 +5520,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>7</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C117" t="s">
         <v>128</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="3" t="s">
         <v>244</v>
       </c>
       <c r="E117">
@@ -5532,17 +5543,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>7</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C118" t="s">
         <v>128</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="3" t="s">
         <v>245</v>
       </c>
       <c r="E118">
@@ -5555,17 +5566,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>7</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C119" t="s">
         <v>128</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="3" t="s">
         <v>246</v>
       </c>
       <c r="E119">
@@ -5578,17 +5589,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>7</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C120" t="s">
         <v>128</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="3" t="s">
         <v>247</v>
       </c>
       <c r="E120">
@@ -5601,17 +5612,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>7</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="3" t="s">
         <v>104</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="3" t="s">
         <v>248</v>
       </c>
       <c r="E121">
@@ -5624,17 +5635,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>7</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C122" t="s">
         <v>128</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="3" t="s">
         <v>249</v>
       </c>
       <c r="E122">
@@ -5647,17 +5658,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>7</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C123" t="s">
         <v>128</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="3" t="s">
         <v>250</v>
       </c>
       <c r="E123">
@@ -5670,17 +5681,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>7</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="3" t="s">
         <v>107</v>
       </c>
       <c r="C124" t="s">
         <v>128</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="3" t="s">
         <v>251</v>
       </c>
       <c r="E124">
@@ -5693,17 +5704,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>7</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C125" t="s">
         <v>128</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="3" t="s">
         <v>252</v>
       </c>
       <c r="E125">
@@ -5716,17 +5727,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>7</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C126" t="s">
         <v>128</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="3" t="s">
         <v>253</v>
       </c>
       <c r="E126">
@@ -5739,17 +5750,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>7</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C127" t="s">
         <v>128</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="3" t="s">
         <v>254</v>
       </c>
       <c r="E127">
@@ -5762,17 +5773,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>7</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="3" t="s">
         <v>111</v>
       </c>
       <c r="C128" t="s">
         <v>128</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="3" t="s">
         <v>255</v>
       </c>
       <c r="E128">
@@ -5785,17 +5796,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>7</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C129" t="s">
         <v>128</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="3" t="s">
         <v>256</v>
       </c>
       <c r="E129">
@@ -5808,17 +5819,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>7</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C130" t="s">
         <v>128</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="3" t="s">
         <v>257</v>
       </c>
       <c r="E130">
@@ -5831,17 +5842,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>7</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="3" t="s">
         <v>114</v>
       </c>
       <c r="C131" t="s">
         <v>128</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="3" t="s">
         <v>258</v>
       </c>
       <c r="E131">
@@ -5854,17 +5865,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>7</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C132" t="s">
         <v>128</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="3" t="s">
         <v>259</v>
       </c>
       <c r="E132">
@@ -5877,17 +5888,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>7</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C133" t="s">
         <v>128</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="3" t="s">
         <v>260</v>
       </c>
       <c r="E133">
@@ -5900,17 +5911,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>7</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C134" t="s">
         <v>128</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="3" t="s">
         <v>261</v>
       </c>
       <c r="E134">
@@ -5923,17 +5934,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>7</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C135" t="s">
         <v>128</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="3" t="s">
         <v>262</v>
       </c>
       <c r="E135">
@@ -5946,17 +5957,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>7</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C136" t="s">
         <v>128</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="3" t="s">
         <v>263</v>
       </c>
       <c r="E136">
@@ -5969,17 +5980,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>7</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C137" t="s">
         <v>128</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="3" t="s">
         <v>264</v>
       </c>
       <c r="E137">
@@ -5992,17 +6003,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>7</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C138" t="s">
         <v>128</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="3" t="s">
         <v>265</v>
       </c>
       <c r="E138">
@@ -6015,17 +6026,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>7</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C139" t="s">
         <v>128</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="3" t="s">
         <v>266</v>
       </c>
       <c r="E139">
@@ -6038,17 +6049,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>7</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C140" t="s">
         <v>128</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="3" t="s">
         <v>267</v>
       </c>
       <c r="E140">
@@ -6061,17 +6072,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>7</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="3" t="s">
         <v>124</v>
       </c>
       <c r="C141" t="s">
         <v>128</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="3" t="s">
         <v>268</v>
       </c>
       <c r="E141">
@@ -6084,17 +6095,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>7</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="3" t="s">
         <v>125</v>
       </c>
       <c r="C142" t="s">
         <v>128</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="3" t="s">
         <v>269</v>
       </c>
       <c r="E142">
@@ -6107,17 +6118,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>7</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="3" t="s">
         <v>126</v>
       </c>
       <c r="C143" t="s">
         <v>128</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="3" t="s">
         <v>270</v>
       </c>
       <c r="E143">
@@ -6130,17 +6141,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>7</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="3" t="s">
         <v>127</v>
       </c>
       <c r="C144" t="s">
         <v>128</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="3" t="s">
         <v>271</v>
       </c>
       <c r="E144">
